--- a/Design/battle.xlsx
+++ b/Design/battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>CopyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,12 +488,76 @@
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">胜利条件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0=消灭场上全部敌人
+1=摧毁敌人基地
+&gt;1000，消灭id=该数值的全部敌人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">我方初始圣水值/最大圣水值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以逗号分开，例如4,8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">敌方初始圣水值/最大圣水值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以逗号分开，例如4,8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +593,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -556,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -936,11 +1014,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="double">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1116,6 +1236,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1420,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1431,18 +1569,18 @@
     <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
-    <col min="6" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="15" customWidth="1"/>
-    <col min="13" max="19" width="15.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="4" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="18" customWidth="1"/>
+    <col min="9" max="14" width="15.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="15" customWidth="1"/>
+    <col min="16" max="22" width="15.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -1455,62 +1593,71 @@
       <c r="D1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="Y1" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -1523,62 +1670,65 @@
       <c r="D2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="J2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="K2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="L2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="M2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="N2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="O2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="P2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="Q2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="R2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="S2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="T2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="U2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="V2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="W2" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="X2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="64" t="s">
+      <c r="Y2" s="64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
@@ -1591,17 +1741,11 @@
       <c r="D3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="42" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>38</v>
@@ -1612,17 +1756,17 @@
       <c r="K3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>20</v>
+      <c r="M3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="P3" s="43" t="s">
         <v>20</v>
@@ -1636,17 +1780,26 @@
       <c r="S3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="45" t="s">
+      <c r="T3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="X3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="Y3" s="64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>801001</v>
       </c>
@@ -1655,958 +1808,1072 @@
         <v>1</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="46"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="47"/>
       <c r="S4" s="47"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="65"/>
-    </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="65"/>
+    </row>
+    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>801002</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="46"/>
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="65"/>
-    </row>
-    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="65"/>
+    </row>
+    <row r="6" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>801003</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="65"/>
-    </row>
-    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="65"/>
+    </row>
+    <row r="7" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>801004</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="46"/>
       <c r="Q7" s="47"/>
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="65"/>
-    </row>
-    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="65"/>
+    </row>
+    <row r="8" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>801005</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="65"/>
-    </row>
-    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="65"/>
+    </row>
+    <row r="9" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>801006</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="46"/>
       <c r="Q9" s="47"/>
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="65"/>
-    </row>
-    <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="65"/>
+    </row>
+    <row r="10" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>801007</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="46"/>
       <c r="Q10" s="47"/>
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="65"/>
-    </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="65"/>
+    </row>
+    <row r="11" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>801008</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="46"/>
       <c r="Q11" s="47"/>
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="65"/>
-    </row>
-    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="65"/>
+    </row>
+    <row r="12" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>801009</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="46"/>
       <c r="Q12" s="47"/>
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="65"/>
-    </row>
-    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="65"/>
+    </row>
+    <row r="13" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>801010</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="46"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="65"/>
-    </row>
-    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="65"/>
+    </row>
+    <row r="14" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>801011</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="46"/>
       <c r="Q14" s="47"/>
       <c r="R14" s="47"/>
       <c r="S14" s="47"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="65"/>
-    </row>
-    <row r="15" spans="1:22" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="65"/>
+    </row>
+    <row r="15" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>801012</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="49"/>
       <c r="R15" s="49"/>
       <c r="S15" s="49"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="66"/>
-    </row>
-    <row r="16" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="66"/>
+    </row>
+    <row r="16" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>802001</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="51"/>
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="67"/>
-    </row>
-    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="67"/>
+    </row>
+    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>802002</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="46"/>
       <c r="Q17" s="47"/>
       <c r="R17" s="47"/>
       <c r="S17" s="47"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="65"/>
-    </row>
-    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="65"/>
+    </row>
+    <row r="18" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>802003</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="46"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="65"/>
-    </row>
-    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="65"/>
+    </row>
+    <row r="19" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>802004</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="46"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="47"/>
       <c r="S19" s="47"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="65"/>
-    </row>
-    <row r="20" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="65"/>
+    </row>
+    <row r="20" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>802005</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="65"/>
-    </row>
-    <row r="21" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="65"/>
+    </row>
+    <row r="21" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>802006</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="46"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="65"/>
-    </row>
-    <row r="22" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="65"/>
+    </row>
+    <row r="22" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>802007</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="46"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="65"/>
-    </row>
-    <row r="23" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="65"/>
+    </row>
+    <row r="23" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>802008</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="46"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
       <c r="S23" s="47"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="65"/>
-    </row>
-    <row r="24" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="65"/>
+    </row>
+    <row r="24" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>802009</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="47"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="65"/>
-    </row>
-    <row r="25" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="65"/>
+    </row>
+    <row r="25" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>802010</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="46"/>
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
       <c r="S25" s="47"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="65"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="65"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>802011</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="53"/>
       <c r="R26" s="53"/>
       <c r="S26" s="53"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="68"/>
-    </row>
-    <row r="27" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="68"/>
+    </row>
+    <row r="27" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69">
         <v>802012</v>
       </c>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
       <c r="Q27" s="75"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="78"/>
-    </row>
-    <row r="28" spans="1:22" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="78"/>
+    </row>
+    <row r="28" spans="1:25" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="62"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
       <c r="Q28" s="58"/>
       <c r="R28" s="58"/>
       <c r="S28" s="58"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="62"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
       <c r="V28" s="58"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W28" s="61"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="58"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="13"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="13"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="13"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29" s="14"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="13"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="13"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="13"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W30" s="14"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="13"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="13"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="13"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W31" s="14"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="13"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="13"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="13"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32" s="14"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="13"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="13"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="13"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33" s="14"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="13"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="13"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="13"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W34" s="14"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="13"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="13"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="13"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W35" s="14"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="13"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="13"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="13"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W36" s="14"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="13"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="13"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="13"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W37" s="14"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="13"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="13"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="13"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W38" s="14"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="13"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="13"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="13"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39" s="14"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="13"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="13"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="13"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W40" s="14"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="13"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="13"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="13"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
       <c r="V41" s="3"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/battle.xlsx
+++ b/Design/battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>CopyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">胜利条件
 </t>
@@ -503,24 +507,13 @@
       </rPr>
       <t>0=消灭场上全部敌人
 1=摧毁敌人基地
-&gt;1000，消灭id=该数值的全部敌人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">我方初始圣水值/最大圣水值
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+&gt;1000，消灭unitid=该数值的全部敌人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">圣水上限值
 </t>
     </r>
     <r>
@@ -531,13 +524,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>以逗号分开，例如4,8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">敌方初始圣水值/最大圣水值
+      <t>我方圣水上限值,敌方圣水上限值用逗号分割
+为-1时读取cfg_global</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">圣水增长间隔
 </t>
     </r>
     <r>
@@ -548,7 +542,38 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>以逗号分开，例如4,8</t>
+      <t>我方圣水上限值,敌方圣水上限值用逗号分割
+为-1时读取cfg_global</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaGrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">初始圣水值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我方初始圣水值敌方初始圣水值
+用逗号分割</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,13 +620,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFF00"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1558,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,18 +1587,18 @@
     <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="18" customWidth="1"/>
-    <col min="9" max="14" width="15.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="15" customWidth="1"/>
-    <col min="16" max="22" width="15.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" style="15" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="4" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="18" customWidth="1"/>
+    <col min="10" max="15" width="15.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="15" customWidth="1"/>
+    <col min="17" max="23" width="15.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.625" style="15" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -1594,70 +1612,73 @@
         <v>47</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="63" t="s">
+      <c r="Z1" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -1670,65 +1691,74 @@
       <c r="D2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="J2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="L2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="M2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="N2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="O2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="P2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="Q2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="R2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="S2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="T2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="U2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="V2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="W2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="X2" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="Y2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="Z2" s="64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
@@ -1741,14 +1771,20 @@
       <c r="D3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
+      <c r="E3" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>39</v>
+      </c>
       <c r="H3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>38</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>38</v>
@@ -1765,11 +1801,11 @@
       <c r="N3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="43" t="s">
-        <v>20</v>
+      <c r="P3" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="Q3" s="43" t="s">
         <v>20</v>
@@ -1789,17 +1825,20 @@
       <c r="V3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="45" t="s">
+      <c r="W3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="43" t="s">
+      <c r="Y3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="64" t="s">
+      <c r="Z3" s="64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>801001</v>
       </c>
@@ -1811,26 +1850,27 @@
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="46"/>
       <c r="R4" s="47"/>
       <c r="S4" s="47"/>
       <c r="T4" s="47"/>
       <c r="U4" s="47"/>
       <c r="V4" s="47"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="65"/>
-    </row>
-    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W4" s="47"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="65"/>
+    </row>
+    <row r="5" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>801002</v>
       </c>
@@ -1840,26 +1880,27 @@
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="46"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
       <c r="V5" s="47"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="65"/>
-    </row>
-    <row r="6" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W5" s="47"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="65"/>
+    </row>
+    <row r="6" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>801003</v>
       </c>
@@ -1869,26 +1910,27 @@
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="47"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="46"/>
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="65"/>
-    </row>
-    <row r="7" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W6" s="47"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="65"/>
+    </row>
+    <row r="7" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>801004</v>
       </c>
@@ -1898,26 +1940,27 @@
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="46"/>
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
       <c r="U7" s="47"/>
       <c r="V7" s="47"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="65"/>
-    </row>
-    <row r="8" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W7" s="47"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="65"/>
+    </row>
+    <row r="8" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>801005</v>
       </c>
@@ -1927,26 +1970,27 @@
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="46"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
       <c r="T8" s="47"/>
       <c r="U8" s="47"/>
       <c r="V8" s="47"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="65"/>
-    </row>
-    <row r="9" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W8" s="47"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="65"/>
+    </row>
+    <row r="9" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>801006</v>
       </c>
@@ -1956,26 +2000,27 @@
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
       <c r="G9" s="81"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
       <c r="T9" s="47"/>
       <c r="U9" s="47"/>
       <c r="V9" s="47"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="65"/>
-    </row>
-    <row r="10" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W9" s="47"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="65"/>
+    </row>
+    <row r="10" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>801007</v>
       </c>
@@ -1985,26 +2030,27 @@
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="47"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="46"/>
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
       <c r="V10" s="47"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="65"/>
-    </row>
-    <row r="11" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W10" s="47"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="65"/>
+    </row>
+    <row r="11" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>801008</v>
       </c>
@@ -2014,26 +2060,27 @@
       <c r="E11" s="81"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="46"/>
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
       <c r="T11" s="47"/>
       <c r="U11" s="47"/>
       <c r="V11" s="47"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="65"/>
-    </row>
-    <row r="12" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W11" s="47"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="65"/>
+    </row>
+    <row r="12" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>801009</v>
       </c>
@@ -2043,26 +2090,27 @@
       <c r="E12" s="81"/>
       <c r="F12" s="81"/>
       <c r="G12" s="81"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
       <c r="V12" s="47"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="65"/>
-    </row>
-    <row r="13" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W12" s="47"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="65"/>
+    </row>
+    <row r="13" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>801010</v>
       </c>
@@ -2072,26 +2120,27 @@
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="46"/>
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="47"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="65"/>
-    </row>
-    <row r="14" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W13" s="47"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="65"/>
+    </row>
+    <row r="14" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>801011</v>
       </c>
@@ -2101,26 +2150,27 @@
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="81"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="46"/>
       <c r="R14" s="47"/>
       <c r="S14" s="47"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="65"/>
-    </row>
-    <row r="15" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W14" s="47"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="65"/>
+    </row>
+    <row r="15" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>801012</v>
       </c>
@@ -2130,26 +2180,27 @@
       <c r="E15" s="82"/>
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="48"/>
       <c r="R15" s="49"/>
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49"/>
       <c r="V15" s="49"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="66"/>
-    </row>
-    <row r="16" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W15" s="49"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="66"/>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>802001</v>
       </c>
@@ -2159,26 +2210,27 @@
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="51"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="50"/>
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
       <c r="U16" s="51"/>
       <c r="V16" s="51"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="67"/>
-    </row>
-    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W16" s="51"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="67"/>
+    </row>
+    <row r="17" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>802002</v>
       </c>
@@ -2188,26 +2240,27 @@
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="46"/>
       <c r="R17" s="47"/>
       <c r="S17" s="47"/>
       <c r="T17" s="47"/>
       <c r="U17" s="47"/>
       <c r="V17" s="47"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="65"/>
-    </row>
-    <row r="18" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W17" s="47"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="65"/>
+    </row>
+    <row r="18" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>802003</v>
       </c>
@@ -2217,26 +2270,27 @@
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="47"/>
       <c r="S18" s="47"/>
       <c r="T18" s="47"/>
       <c r="U18" s="47"/>
       <c r="V18" s="47"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="65"/>
-    </row>
-    <row r="19" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W18" s="47"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="65"/>
+    </row>
+    <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>802004</v>
       </c>
@@ -2246,26 +2300,27 @@
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="46"/>
       <c r="R19" s="47"/>
       <c r="S19" s="47"/>
       <c r="T19" s="47"/>
       <c r="U19" s="47"/>
       <c r="V19" s="47"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="65"/>
-    </row>
-    <row r="20" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W19" s="47"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="65"/>
+    </row>
+    <row r="20" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>802005</v>
       </c>
@@ -2275,26 +2330,27 @@
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
       <c r="T20" s="47"/>
       <c r="U20" s="47"/>
       <c r="V20" s="47"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="65"/>
-    </row>
-    <row r="21" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W20" s="47"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="65"/>
+    </row>
+    <row r="21" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>802006</v>
       </c>
@@ -2304,26 +2360,27 @@
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="46"/>
       <c r="R21" s="47"/>
       <c r="S21" s="47"/>
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="65"/>
-    </row>
-    <row r="22" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W21" s="47"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="65"/>
+    </row>
+    <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>802007</v>
       </c>
@@ -2333,26 +2390,27 @@
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="46"/>
       <c r="R22" s="47"/>
       <c r="S22" s="47"/>
       <c r="T22" s="47"/>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="65"/>
-    </row>
-    <row r="23" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W22" s="47"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="65"/>
+    </row>
+    <row r="23" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>802008</v>
       </c>
@@ -2362,26 +2420,27 @@
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="46"/>
       <c r="R23" s="47"/>
       <c r="S23" s="47"/>
       <c r="T23" s="47"/>
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="65"/>
-    </row>
-    <row r="24" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W23" s="47"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="65"/>
+    </row>
+    <row r="24" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>802009</v>
       </c>
@@ -2391,26 +2450,27 @@
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="46"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
       <c r="T24" s="47"/>
       <c r="U24" s="47"/>
       <c r="V24" s="47"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="65"/>
-    </row>
-    <row r="25" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W24" s="47"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="65"/>
+    </row>
+    <row r="25" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>802010</v>
       </c>
@@ -2420,26 +2480,27 @@
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="46"/>
       <c r="R25" s="47"/>
       <c r="S25" s="47"/>
       <c r="T25" s="47"/>
       <c r="U25" s="47"/>
       <c r="V25" s="47"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="65"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W25" s="47"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="65"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>802011</v>
       </c>
@@ -2449,26 +2510,27 @@
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="53"/>
       <c r="S26" s="53"/>
       <c r="T26" s="53"/>
       <c r="U26" s="53"/>
       <c r="V26" s="53"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="68"/>
-    </row>
-    <row r="27" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="53"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="68"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69">
         <v>802012</v>
       </c>
@@ -2478,26 +2540,27 @@
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
       <c r="G27" s="85"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
       <c r="N27" s="72"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="75"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="74"/>
       <c r="R27" s="75"/>
       <c r="S27" s="75"/>
       <c r="T27" s="75"/>
       <c r="U27" s="75"/>
       <c r="V27" s="75"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="78"/>
-    </row>
-    <row r="28" spans="1:25" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="W27" s="75"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="78"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -2505,26 +2568,27 @@
       <c r="E28" s="86"/>
       <c r="F28" s="86"/>
       <c r="G28" s="86"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="58"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
       <c r="L28" s="58"/>
       <c r="M28" s="58"/>
       <c r="N28" s="58"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="62"/>
       <c r="R28" s="58"/>
       <c r="S28" s="58"/>
       <c r="T28" s="58"/>
       <c r="U28" s="58"/>
       <c r="V28" s="58"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="58"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W28" s="58"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="58"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2532,26 +2596,27 @@
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="84"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="13"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W29" s="3"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2559,26 +2624,27 @@
       <c r="E30" s="84"/>
       <c r="F30" s="84"/>
       <c r="G30" s="84"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="13"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W30" s="3"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2586,26 +2652,27 @@
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
       <c r="G31" s="84"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="13"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W31" s="3"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2613,26 +2680,27 @@
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
       <c r="G32" s="84"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="3"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W32" s="3"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2640,26 +2708,27 @@
       <c r="E33" s="84"/>
       <c r="F33" s="84"/>
       <c r="G33" s="84"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W33" s="3"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2667,26 +2736,27 @@
       <c r="E34" s="84"/>
       <c r="F34" s="84"/>
       <c r="G34" s="84"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="3"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="13"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W34" s="3"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2694,26 +2764,27 @@
       <c r="E35" s="84"/>
       <c r="F35" s="84"/>
       <c r="G35" s="84"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="3"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W35" s="3"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2721,26 +2792,27 @@
       <c r="E36" s="84"/>
       <c r="F36" s="84"/>
       <c r="G36" s="84"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="3"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W36" s="3"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2748,26 +2820,27 @@
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
       <c r="G37" s="84"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="13"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W37" s="3"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2775,26 +2848,27 @@
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
       <c r="G38" s="84"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="3"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="13"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W38" s="3"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2802,26 +2876,27 @@
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
       <c r="G39" s="84"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="3"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W39" s="3"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2829,26 +2904,27 @@
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
       <c r="G40" s="84"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="3"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W40" s="3"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2856,24 +2932,25 @@
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
       <c r="G41" s="84"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="3"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="13"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
